--- a/SchedulingData/dynamic12/pso/scheduling1_4.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_4.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>74.88</v>
+        <v>60.7</v>
       </c>
       <c r="E2" t="n">
-        <v>26.152</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="3">
@@ -485,55 +485,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.14</v>
+        <v>84.88</v>
       </c>
       <c r="E3" t="n">
-        <v>27.036</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>69.12</v>
+        <v>63.2</v>
       </c>
       <c r="E4" t="n">
-        <v>25.788</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>84.88</v>
       </c>
       <c r="D5" t="n">
-        <v>53.6</v>
+        <v>137.42</v>
       </c>
       <c r="E5" t="n">
-        <v>25.84</v>
+        <v>23.028</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74.88</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>156.88</v>
+        <v>53.6</v>
       </c>
       <c r="E6" t="n">
-        <v>21.532</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>119.86</v>
+        <v>55.4</v>
       </c>
       <c r="E7" t="n">
-        <v>22.824</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>137.42</v>
       </c>
       <c r="D8" t="n">
-        <v>48.3</v>
+        <v>192.94</v>
       </c>
       <c r="E8" t="n">
-        <v>27.36</v>
+        <v>19.596</v>
       </c>
     </row>
     <row r="9">
@@ -599,74 +599,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.3</v>
+        <v>63.2</v>
       </c>
       <c r="D9" t="n">
-        <v>99.31999999999999</v>
+        <v>124.46</v>
       </c>
       <c r="E9" t="n">
-        <v>23.888</v>
+        <v>22.364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>71.14</v>
+        <v>53.6</v>
       </c>
       <c r="D10" t="n">
-        <v>123.34</v>
+        <v>91.3</v>
       </c>
       <c r="E10" t="n">
-        <v>22.956</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>91.3</v>
       </c>
       <c r="D11" t="n">
-        <v>62.3</v>
+        <v>164.3</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>69.12</v>
+        <v>124.46</v>
       </c>
       <c r="D12" t="n">
-        <v>146.08</v>
+        <v>166.38</v>
       </c>
       <c r="E12" t="n">
-        <v>23.192</v>
+        <v>19.812</v>
       </c>
     </row>
     <row r="13">
@@ -675,93 +675,93 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>123.34</v>
+        <v>192.94</v>
       </c>
       <c r="D13" t="n">
-        <v>167.58</v>
+        <v>250</v>
       </c>
       <c r="E13" t="n">
-        <v>20.172</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>62.3</v>
+        <v>55.4</v>
       </c>
       <c r="D14" t="n">
-        <v>121.9</v>
+        <v>102.5</v>
       </c>
       <c r="E14" t="n">
-        <v>23.56</v>
+        <v>24.04</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>156.88</v>
+        <v>60.7</v>
       </c>
       <c r="D15" t="n">
-        <v>196.78</v>
+        <v>138.92</v>
       </c>
       <c r="E15" t="n">
-        <v>19.172</v>
+        <v>21.888</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>196.78</v>
+        <v>138.92</v>
       </c>
       <c r="D16" t="n">
-        <v>250.84</v>
+        <v>205.86</v>
       </c>
       <c r="E16" t="n">
-        <v>15.896</v>
+        <v>18.324</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>250.84</v>
+        <v>205.86</v>
       </c>
       <c r="D17" t="n">
-        <v>316.06</v>
+        <v>249.92</v>
       </c>
       <c r="E17" t="n">
-        <v>12.464</v>
+        <v>15.048</v>
       </c>
     </row>
     <row r="18">
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>316.06</v>
+        <v>164.3</v>
       </c>
       <c r="D18" t="n">
-        <v>356.06</v>
+        <v>219.3</v>
       </c>
       <c r="E18" t="n">
-        <v>9.603999999999999</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>99.31999999999999</v>
+        <v>166.38</v>
       </c>
       <c r="D19" t="n">
-        <v>142.4</v>
+        <v>222.84</v>
       </c>
       <c r="E19" t="n">
-        <v>21.2</v>
+        <v>16.276</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>119.86</v>
+        <v>102.5</v>
       </c>
       <c r="D20" t="n">
-        <v>181.32</v>
+        <v>160.72</v>
       </c>
       <c r="E20" t="n">
-        <v>19.288</v>
+        <v>20.848</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>142.4</v>
+        <v>249.92</v>
       </c>
       <c r="D21" t="n">
-        <v>192.16</v>
+        <v>316.22</v>
       </c>
       <c r="E21" t="n">
-        <v>18.824</v>
+        <v>11.508</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>192.16</v>
+        <v>250</v>
       </c>
       <c r="D22" t="n">
-        <v>250.86</v>
+        <v>299.3</v>
       </c>
       <c r="E22" t="n">
-        <v>16.544</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="23">
@@ -869,32 +869,32 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>167.58</v>
+        <v>299.3</v>
       </c>
       <c r="D23" t="n">
-        <v>203.62</v>
+        <v>350.14</v>
       </c>
       <c r="E23" t="n">
-        <v>17.208</v>
+        <v>11.716</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>250.86</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>292.58</v>
+        <v>77.06</v>
       </c>
       <c r="E24" t="n">
-        <v>13.992</v>
+        <v>25.464</v>
       </c>
     </row>
     <row r="25">
@@ -903,55 +903,55 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>356.06</v>
+        <v>219.3</v>
       </c>
       <c r="D25" t="n">
-        <v>409.66</v>
+        <v>277.28</v>
       </c>
       <c r="E25" t="n">
-        <v>6.884</v>
+        <v>14.932</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>146.08</v>
+        <v>222.84</v>
       </c>
       <c r="D26" t="n">
-        <v>194.4</v>
+        <v>286.96</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>13.944</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>181.32</v>
+        <v>77.06</v>
       </c>
       <c r="D27" t="n">
-        <v>257.42</v>
+        <v>135.8</v>
       </c>
       <c r="E27" t="n">
-        <v>15.748</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="28">
@@ -960,55 +960,55 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>121.9</v>
+        <v>135.8</v>
       </c>
       <c r="D28" t="n">
-        <v>181.12</v>
+        <v>200.48</v>
       </c>
       <c r="E28" t="n">
-        <v>21.228</v>
+        <v>17.872</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>292.58</v>
+        <v>160.72</v>
       </c>
       <c r="D29" t="n">
-        <v>358.92</v>
+        <v>230.42</v>
       </c>
       <c r="E29" t="n">
-        <v>10.968</v>
+        <v>17.488</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>358.92</v>
+        <v>200.48</v>
       </c>
       <c r="D30" t="n">
-        <v>413.42</v>
+        <v>251.6</v>
       </c>
       <c r="E30" t="n">
-        <v>8.648</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>194.4</v>
+        <v>316.22</v>
       </c>
       <c r="D31" t="n">
-        <v>256.14</v>
+        <v>391.12</v>
       </c>
       <c r="E31" t="n">
-        <v>16.436</v>
+        <v>8.087999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>181.12</v>
+        <v>230.42</v>
       </c>
       <c r="D32" t="n">
-        <v>245.6</v>
+        <v>265.42</v>
       </c>
       <c r="E32" t="n">
-        <v>17.38</v>
+        <v>15.128</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>257.42</v>
+        <v>265.42</v>
       </c>
       <c r="D33" t="n">
-        <v>338.78</v>
+        <v>319.22</v>
       </c>
       <c r="E33" t="n">
-        <v>11.212</v>
+        <v>12.848</v>
       </c>
     </row>
     <row r="34">
@@ -1074,150 +1074,150 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>245.6</v>
+        <v>251.6</v>
       </c>
       <c r="D34" t="n">
-        <v>300.9</v>
+        <v>291.56</v>
       </c>
       <c r="E34" t="n">
-        <v>13.48</v>
+        <v>12.024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>256.14</v>
+        <v>286.96</v>
       </c>
       <c r="D35" t="n">
-        <v>301.64</v>
+        <v>332.9</v>
       </c>
       <c r="E35" t="n">
-        <v>13.016</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>300.9</v>
+        <v>350.14</v>
       </c>
       <c r="D36" t="n">
-        <v>370.22</v>
+        <v>421.68</v>
       </c>
       <c r="E36" t="n">
-        <v>10.648</v>
+        <v>8.692</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>203.62</v>
+        <v>277.28</v>
       </c>
       <c r="D37" t="n">
-        <v>261.26</v>
+        <v>341.7</v>
       </c>
       <c r="E37" t="n">
-        <v>14.084</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>370.22</v>
+        <v>332.9</v>
       </c>
       <c r="D38" t="n">
-        <v>420.12</v>
+        <v>393.28</v>
       </c>
       <c r="E38" t="n">
-        <v>7.768</v>
+        <v>7.572</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>338.78</v>
+        <v>291.56</v>
       </c>
       <c r="D39" t="n">
-        <v>398.58</v>
+        <v>373.26</v>
       </c>
       <c r="E39" t="n">
-        <v>7.852</v>
+        <v>7.944</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>261.26</v>
+        <v>341.7</v>
       </c>
       <c r="D40" t="n">
-        <v>306.64</v>
+        <v>411.1</v>
       </c>
       <c r="E40" t="n">
-        <v>10.676</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>306.64</v>
+        <v>319.22</v>
       </c>
       <c r="D41" t="n">
-        <v>380.28</v>
+        <v>358.46</v>
       </c>
       <c r="E41" t="n">
-        <v>6.932</v>
+        <v>10.064</v>
       </c>
     </row>
   </sheetData>
